--- a/biology/Botanique/Rome_Beauty/Rome_Beauty.xlsx
+++ b/biology/Botanique/Rome_Beauty/Rome_Beauty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rome Beauty est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rome, Red Rome.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Épiderme : rouge
 Usage : cette variété est particulièrement utilisée comme pomme à cuire.</t>
@@ -573,7 +589,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rome Beauty est née en Ohio, issue d'un semis chanceux avant 1800.
 </t>
@@ -604,9 +622,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rome Beauty a de nombreux descendants succédant à premier croisement avec le Malus Floribunda 821 réalisé dans le cadre de recherches d'universités américaines pour obtenir une meilleure résistance aux races communes tavelure (Prima, Priscilla, Redfree, Enterprise, Pristine, Juliet,...)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rome Beauty a de nombreux descendants succédant à premier croisement avec le Malus Floribunda 821 réalisé dans le cadre de recherches d'universités américaines pour obtenir une meilleure résistance aux races communes tavelure (Prima, Priscilla, Redfree, Enterprise, Pristine, Juliet,...).
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cultivar diploïde autofertile.
 Groupe de floraison : D</t>
@@ -666,9 +688,11 @@
           <t>Susceptibilités aux maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tavelure : élevée[2]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tavelure : élevée
 Mildiou : élevée
 Rouille : élevée
 Feu bactérien : élevée
@@ -701,7 +725,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Port : type IV</t>
         </is>
